--- a/df_2/df_2_1.xlsx
+++ b/df_2/df_2_1.xlsx
@@ -656,372 +656,372 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.2586 %</t>
+          <t>0,2586</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3054 %</t>
+          <t>0,3054</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0847 %</t>
+          <t>0,0847</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.1268 %</t>
+          <t>0,1268</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.2001 %</t>
+          <t>0,2001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0851 %</t>
+          <t>0,0851</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.1476 %</t>
+          <t>0,1476</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2651 %</t>
+          <t>0,2651</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0902 %</t>
+          <t>0,0902</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.0668 %</t>
+          <t>0,0668</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.1239 %</t>
+          <t>0,1239</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.1797 %</t>
+          <t>0,1797</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0498 %</t>
+          <t>0,0498</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.0236 %</t>
+          <t>0,0236</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.1052 %</t>
+          <t>0,1052</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.102 %</t>
+          <t>0,102</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.0711 %</t>
+          <t>0,0711</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.1846 %</t>
+          <t>0,1846</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.0644 %</t>
+          <t>0,0644</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.2574 %</t>
+          <t>0,2574</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.0899 %</t>
+          <t>0,0899</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.0946 %</t>
+          <t>0,0946</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.068 %</t>
+          <t>0,068</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.2583 %</t>
+          <t>0,2583</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.0388 %</t>
+          <t>0,0388</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0839 %</t>
+          <t>0,0839</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.0352 %</t>
+          <t>0,0352</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.0984 %</t>
+          <t>0,0984</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.1658 %</t>
+          <t>0,1658</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.0263 %</t>
+          <t>0,0263</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.0429 %</t>
+          <t>0,0429</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.2289 %</t>
+          <t>0,2289</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.0394 %</t>
+          <t>0,0394</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.0396 %</t>
+          <t>0,0396</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.0308 %</t>
+          <t>0,0308</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.1291 %</t>
+          <t>0,1291</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.0676 %</t>
+          <t>0,0676</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.1072 %</t>
+          <t>0,1072</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.0878 %</t>
+          <t>0,0878</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.0996 %</t>
+          <t>0,0996</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.1863 %</t>
+          <t>0,1863</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.209 %</t>
+          <t>0,209</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.1358 %</t>
+          <t>0,1358</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.1207 %</t>
+          <t>0,1207</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.0983 %</t>
+          <t>0,0983</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.1639 %</t>
+          <t>0,1639</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.1755 %</t>
+          <t>0,1755</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.3492 %</t>
+          <t>0,3492</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.1309 %</t>
+          <t>0,1309</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.0826 %</t>
+          <t>0,0826</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.1771 %</t>
+          <t>0,1771</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.1136 %</t>
+          <t>0,1136</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.0459 %</t>
+          <t>0,0459</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.1729 %</t>
+          <t>0,1729</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.0805 %</t>
+          <t>0,0805</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.1804 %</t>
+          <t>0,1804</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.0447 %</t>
+          <t>0,0447</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.0185 %</t>
+          <t>0,0185</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.3686 %</t>
+          <t>0,3686</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.1334 %</t>
+          <t>0,1334</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.114 %</t>
+          <t>0,114</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.0134 %</t>
+          <t>0,0134</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.3856 %</t>
+          <t>0,3856</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.2247 %</t>
+          <t>0,2247</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.1499 %</t>
+          <t>0,1499</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.0372 %</t>
+          <t>0,0372</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.0276 %</t>
+          <t>0,0276</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.2483 %</t>
+          <t>0,2483</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.2061 %</t>
+          <t>0,2061</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.1534 %</t>
+          <t>0,1534</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.2071 %</t>
+          <t>0,2071</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.4043 %</t>
+          <t>0,4043</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.0608 %</t>
+          <t>0,0608</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.0394 %</t>
+          <t>0,0394</t>
         </is>
       </c>
     </row>
@@ -1033,232 +1033,232 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.3877 %</t>
+          <t>0,3877</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.1041 %</t>
+          <t>0,1041</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.9799 %</t>
+          <t>0,9799</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.0918 %</t>
+          <t>0,0918</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0679 %</t>
+          <t>0,0679</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3837 %</t>
+          <t>0,3837</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0302 %</t>
+          <t>0,0302</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2026 %</t>
+          <t>0,2026</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.5573 %</t>
+          <t>0,5573</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.1407 %</t>
+          <t>0,1407</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.0848 %</t>
+          <t>0,0848</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.2362 %</t>
+          <t>0,2362</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.2906 %</t>
+          <t>0,2906</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.227 %</t>
+          <t>0,227</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.1797 %</t>
+          <t>0,1797</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.0725 %</t>
+          <t>0,0725</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.1862 %</t>
+          <t>0,1862</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.0804 %</t>
+          <t>0,0804</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.0919 %</t>
+          <t>0,0919</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.0823 %</t>
+          <t>0,0823</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.1814 %</t>
+          <t>0,1814</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.0396 %</t>
+          <t>0,0396</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.1925 %</t>
+          <t>0,1925</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.0747 %</t>
+          <t>0,0747</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.2297 %</t>
+          <t>0,2297</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0605 %</t>
+          <t>0,0605</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.136 %</t>
+          <t>0,136</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.0964 %</t>
+          <t>0,0964</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.114 %</t>
+          <t>0,114</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.0512 %</t>
+          <t>0,0512</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.0118 %</t>
+          <t>0,0118</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.0231 %</t>
+          <t>0,0231</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.116 %</t>
+          <t>0,116</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.0942 %</t>
+          <t>0,0942</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.0136 %</t>
+          <t>0,0136</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.009 %</t>
+          <t>0,009</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.018 %</t>
+          <t>0,018</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.009 %</t>
+          <t>0,009</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.0439 %</t>
+          <t>0,0439</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.071 %</t>
+          <t>0,071</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.0067 %</t>
+          <t>0,0067</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.0298 %</t>
+          <t>0,0298</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.0171 %</t>
+          <t>0,0171</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.0336 %</t>
+          <t>0,0336</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.0116 %</t>
+          <t>0,0116</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.0398 %</t>
+          <t>0,0398</t>
         </is>
       </c>
     </row>
@@ -1270,237 +1270,237 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.6941 %</t>
+          <t>1,6941</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5133 %</t>
+          <t>0,5133</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.2272 %</t>
+          <t>0,2272</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.141 %</t>
+          <t>0,141</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1001 %</t>
+          <t>0,1001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0686 %</t>
+          <t>0,0686</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.065 %</t>
+          <t>0,065</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0423 %</t>
+          <t>0,0423</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0413 %</t>
+          <t>0,0413</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0336 %</t>
+          <t>0,0336</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0252 %</t>
+          <t>0,0252</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0442 %</t>
+          <t>0,0442</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0615 %</t>
+          <t>0,0615</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0619 %</t>
+          <t>0,0619</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.059 %</t>
+          <t>0,059</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0949 %</t>
+          <t>0,0949</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.1021 %</t>
+          <t>0,1021</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.1552 %</t>
+          <t>0,1552</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.1696 %</t>
+          <t>0,1696</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.0972 %</t>
+          <t>0,0972</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.1226 %</t>
+          <t>0,1226</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.2922 %</t>
+          <t>0,2922</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.3468 %</t>
+          <t>0,3468</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.1848 %</t>
+          <t>0,1848</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.1514 %</t>
+          <t>0,1514</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.1446 %</t>
+          <t>0,1446</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.1351 %</t>
+          <t>0,1351</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.1028 %</t>
+          <t>0,1028</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.1438 %</t>
+          <t>0,1438</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.1624 %</t>
+          <t>0,1624</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.1966 %</t>
+          <t>0,1966</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.2077 %</t>
+          <t>0,2077</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.1961 %</t>
+          <t>0,1961</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.1807 %</t>
+          <t>0,1807</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.1362 %</t>
+          <t>0,1362</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.1495 %</t>
+          <t>0,1495</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.1364 %</t>
+          <t>0,1364</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.1621 %</t>
+          <t>0,1621</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.1439 %</t>
+          <t>0,1439</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.1624 %</t>
+          <t>0,1624</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.1648 %</t>
+          <t>0,1648</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.2465 %</t>
+          <t>0,2465</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.2552 %</t>
+          <t>0,2552</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.2092 %</t>
+          <t>0,2092</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.364 %</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>0.6565 %</t>
+          <t>0,6565</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1.248 %</t>
+          <t>1,248</t>
         </is>
       </c>
     </row>
